--- a/ha-resource/data/data.xlsx
+++ b/ha-resource/data/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D592659-6022-41C9-927B-FBF964B6BB9D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6750" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEALTH_INFO" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>DATA_ID</t>
     <phoneticPr fontId="1"/>
@@ -84,6 +85,10 @@
   </si>
   <si>
     <t>MAIL_PASSWORD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HEALTH_INFO_MASK_FLAG</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -435,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -487,10 +492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642560DD-8617-45D6-9000-DA3F9BC794E2}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -501,10 +506,11 @@
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="31.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="19.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.625" customWidth="1"/>
+    <col min="8" max="9" width="19.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -524,9 +530,12 @@
         <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/ha-resource/data/data.xlsx
+++ b/ha-resource/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D592659-6022-41C9-927B-FBF964B6BB9D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195EAB82-3A0C-4833-BEAB-F96DBE51E81F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7650" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEALTH_INFO" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
-    <t>DATA_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>USER_ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -60,10 +56,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INVALID_FLAG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PASSWORD_EXPIRE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -89,6 +81,14 @@
   </si>
   <si>
     <t>HEALTH_INFO_MASK_FLAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HEALTH_INFO_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DELETE_FLAG</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -441,12 +441,12 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8.375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -459,28 +459,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +495,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -512,31 +512,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +551,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -565,19 +565,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
